--- a/SFE_Parameter_Estimation_Chamomile/Regression.xlsx
+++ b/SFE_Parameter_Estimation_Chamomile/Regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE_Parameter_Estimation_Chamomile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C814D48-C302-4D68-A8C5-4AE31C6BB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DECD279-AC1B-4046-89FF-88AAC2776ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{03D41C1C-870E-417B-AAEA-53B147CA819E}"/>
+    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{03D41C1C-870E-417B-AAEA-53B147CA819E}"/>
   </bookViews>
   <sheets>
     <sheet name="Interpolated" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>T[K]</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>EXP(GAMMA)</t>
+  </si>
+  <si>
+    <t>My Reynolds</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$B$14:$I$14</c:f>
+              <c:f>Org!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1085,7 +1088,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$J$14:$M$14</c:f>
+              <c:f>Org!$J$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1536,7 +1539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$B$17:$I$17</c:f>
+              <c:f>Org!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1669,7 +1672,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$J$17:$M$17</c:f>
+              <c:f>Org!$J$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5210,9 +5213,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>6.67</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5281,40 +5281,40 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Org!$B$7:$I$7</c:f>
+              <c:f>Org!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.4632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>0.37830000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0.3029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.26190000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38</c:v>
+                  <c:v>0.3579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29799999999999999</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.23230000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$B$13:$I$13</c:f>
+              <c:f>Org!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5355,9 +5355,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>3.33</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5391,29 +5388,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.8959755030621171E-2"/>
-                  <c:y val="2.162438028579761E-2"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5446,28 +5423,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Org!$J$7:$M$7</c:f>
+              <c:f>Org!$J$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.1787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21</c:v>
+                  <c:v>0.18890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.1512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$J$13:$M$13</c:f>
+              <c:f>Org!$J$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5813,9 +5790,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>6.67</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5884,40 +5858,40 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Org!$B$7:$I$7</c:f>
+              <c:f>Org!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.4632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>0.37830000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0.3029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.26190000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38</c:v>
+                  <c:v>0.3579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29799999999999999</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.23230000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$B$14:$I$14</c:f>
+              <c:f>Org!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5958,9 +5932,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>3.33</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -6049,28 +6020,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Org!$J$7:$M$7</c:f>
+              <c:f>Org!$J$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.1787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21</c:v>
+                  <c:v>0.18890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.1512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$J$14:$M$14</c:f>
+              <c:f>Org!$J$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6534,7 +6505,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$B$13:$I$13</c:f>
+              <c:f>Org!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6667,7 +6638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Org!$J$13:$M$13</c:f>
+              <c:f>Org!$J$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14212,10 +14183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755FB928-C026-4657-8504-938CB40F20F3}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="O10:T14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14484,444 +14455,485 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ref="B9:M9" si="0">LOG(B7)</f>
-        <v>-0.28903688100472424</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.37675070960209955</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-0.46218090492672592</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>-0.51570016065321422</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.42021640338318983</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-0.46470587995722945</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-0.52578373592374483</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>-0.57186520597121115</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>-0.72124639904717103</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>-0.8728952016351923</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>-0.6777807052660807</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>-0.76447155309245107</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.4632</v>
+      </c>
+      <c r="C8">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.3029</v>
+      </c>
+      <c r="E8">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.3579</v>
+      </c>
+      <c r="G8">
+        <v>0.314</v>
+      </c>
+      <c r="H8">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.1787</v>
+      </c>
+      <c r="K8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.18890000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.1512</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>LOG(B7)</f>
+        <v>-0.28903688100472424</v>
+      </c>
+      <c r="C10">
+        <f>LOG(C7)</f>
+        <v>-0.37675070960209955</v>
+      </c>
+      <c r="D10">
+        <f>LOG(D7)</f>
+        <v>-0.46218090492672592</v>
+      </c>
+      <c r="E10">
+        <f>LOG(E7)</f>
+        <v>-0.51570016065321422</v>
+      </c>
+      <c r="F10">
+        <f>LOG(F7)</f>
+        <v>-0.42021640338318983</v>
+      </c>
+      <c r="G10">
+        <f>LOG(G7)</f>
+        <v>-0.46470587995722945</v>
+      </c>
+      <c r="H10">
+        <f>LOG(H7)</f>
+        <v>-0.52578373592374483</v>
+      </c>
+      <c r="I10">
+        <f>LOG(I7)</f>
+        <v>-0.57186520597121115</v>
+      </c>
+      <c r="J10">
+        <f>LOG(J7)</f>
+        <v>-0.72124639904717103</v>
+      </c>
+      <c r="K10">
+        <f>LOG(K7)</f>
+        <v>-0.8728952016351923</v>
+      </c>
+      <c r="L10">
+        <f>LOG(L7)</f>
+        <v>-0.6777807052660807</v>
+      </c>
+      <c r="M10">
+        <f>LOG(M7)</f>
+        <v>-0.76447155309245107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>EXP(B7)</f>
         <v>1.6719656998361128</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:M10" si="1">EXP(C7)</f>
+      <c r="C11">
+        <f>EXP(C7)</f>
         <v>1.5219615556186337</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+      <c r="D11">
+        <f>EXP(D7)</f>
         <v>1.4119899196676591</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="E11">
+        <f>EXP(E7)</f>
         <v>1.3566250030062241</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
+      <c r="F11">
+        <f>EXP(F7)</f>
         <v>1.4622845894342245</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="G11">
+        <f>EXP(G7)</f>
         <v>1.4091687619264508</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f>EXP(H7)</f>
         <v>1.3471617878795541</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="I11">
+        <f>EXP(I7)</f>
         <v>1.3073471400149361</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
+      <c r="J11">
+        <f>EXP(J7)</f>
         <v>1.2092495976572515</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
+      <c r="K11">
+        <f>EXP(K7)</f>
         <v>1.143392819644647</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
+      <c r="L11">
+        <f>EXP(L7)</f>
         <v>1.2336780599567432</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
+      <c r="M11">
+        <f>EXP(M7)</f>
         <v>1.187677833213906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-9.3433459124788953</v>
-      </c>
-      <c r="C12">
-        <v>-12.99345312395128</v>
-      </c>
-      <c r="D12">
-        <v>-17.477941423304298</v>
-      </c>
-      <c r="E12">
-        <v>-28.021928584514995</v>
-      </c>
-      <c r="F12">
-        <v>-18.871057207524057</v>
-      </c>
-      <c r="G12">
-        <v>-19.281323853772289</v>
-      </c>
-      <c r="H12">
-        <v>-19.166234468595025</v>
-      </c>
-      <c r="I12">
-        <v>-21.085287945992985</v>
-      </c>
-      <c r="J12">
-        <v>-29.253389020566033</v>
-      </c>
-      <c r="K12">
-        <v>-15.737791772124456</v>
-      </c>
-      <c r="L12">
-        <v>-15.718</v>
-      </c>
-      <c r="M12">
-        <v>-15.872090161114013</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0.70147227537586421</v>
+        <v>-9.3433459124788953</v>
       </c>
       <c r="C13">
-        <v>1.3314430554178129</v>
+        <v>-12.99345312395128</v>
       </c>
       <c r="D13">
-        <v>2.2393078887191953</v>
+        <v>-17.477941423304298</v>
       </c>
       <c r="E13">
-        <v>2.7118131866508781</v>
+        <v>-28.021928584514995</v>
       </c>
       <c r="F13">
-        <v>1.3262922800291814</v>
+        <v>-18.871057207524057</v>
       </c>
       <c r="G13">
-        <v>1.4855043445280016</v>
+        <v>-19.281323853772289</v>
       </c>
       <c r="H13">
-        <v>1.7382746699526765</v>
+        <v>-19.166234468595025</v>
       </c>
       <c r="I13">
-        <v>2.5950296097045227</v>
+        <v>-21.085287945992985</v>
       </c>
       <c r="J13">
-        <v>0.48656240972856923</v>
+        <v>-29.253389020566033</v>
       </c>
       <c r="K13">
-        <v>1.3634995114945596</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.72226999999999997</v>
+        <v>-15.737791772124456</v>
+      </c>
+      <c r="L13">
+        <v>-15.718</v>
       </c>
       <c r="M13">
-        <v>0.75621401937759758</v>
+        <v>-15.872090161114013</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.70147227537586421</v>
+      </c>
+      <c r="C14">
+        <v>1.3314430554178129</v>
+      </c>
+      <c r="D14">
+        <v>2.2393078887191953</v>
+      </c>
+      <c r="E14">
+        <v>2.7118131866508781</v>
+      </c>
+      <c r="F14">
+        <v>1.3262922800291814</v>
+      </c>
+      <c r="G14">
+        <v>1.4855043445280016</v>
+      </c>
+      <c r="H14">
+        <v>1.7382746699526765</v>
+      </c>
+      <c r="I14">
+        <v>2.5950296097045227</v>
+      </c>
+      <c r="J14">
+        <v>0.48656240972856923</v>
+      </c>
+      <c r="K14">
+        <v>1.3634995114945596</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.72226999999999997</v>
+      </c>
+      <c r="M14">
+        <v>0.75621401937759758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>4.2748257041675721</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2.1893903684060687</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>2.5522400389223407</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1.3651631757915688</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>2.830760407018452</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>2.5734873735498027</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>1.6422795905106575</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>1.9062000519230382</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>4.2872152353519892</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>2.7236821167727832</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L15" s="2">
         <v>3.8224</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>3.3558934804185721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:M16" si="2">LOG(B13)</f>
-        <v>-0.15398948912488156</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>0.12432259680074637</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>0.35011381005021541</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.43325976823295143</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0.12263924172801355</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>0.17187392628561249</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0.24011840169826204</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>0.41414231758251951</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>-0.31286144632599328</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0.13465498668156864</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>-0.14130042349639441</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>-0.12135527555601085</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:M17" si="0">LOG(B14)</f>
+        <v>-0.15398948912488156</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.12432259680074637</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.35011381005021541</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.43325976823295143</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.12263924172801355</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.17187392628561249</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.24011840169826204</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.41414231758251951</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>-0.31286144632599328</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.13465498668156864</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>-0.14130042349639441</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>-0.12135527555601085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:M17" si="3">LOG(B14)</f>
+      <c r="B18">
+        <f t="shared" ref="B18:M18" si="1">LOG(B15)</f>
         <v>0.63091841210246569</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>0.34032320319869058</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
+      <c r="D18">
+        <f t="shared" si="1"/>
         <v>0.40692151749309152</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
+      <c r="E18">
+        <f t="shared" si="1"/>
         <v>0.13518456501078124</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
+      <c r="F18">
+        <f t="shared" si="1"/>
         <v>0.45190311263137678</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
+      <c r="G18">
+        <f t="shared" si="1"/>
         <v>0.41052204178723795</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
+      <c r="H18">
+        <f t="shared" si="1"/>
         <v>0.21544709570631759</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
+      <c r="I18">
+        <f t="shared" si="1"/>
         <v>0.28016847704055114</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
+      <c r="J18">
+        <f t="shared" si="1"/>
         <v>0.63217528737795659</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
+      <c r="K18">
+        <f t="shared" si="1"/>
         <v>0.43515641932466459</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
+      <c r="L18">
+        <f t="shared" si="1"/>
         <v>0.58233613240580262</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
+      <c r="M18">
+        <f t="shared" si="1"/>
         <v>0.52580816741273972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ref="B19:M19" si="4">EXP(B13)</f>
-        <v>2.0167196895661705</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>3.7865035814478478</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="4"/>
-        <v>9.3868323061629635</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
-        <v>15.056551117017483</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>3.7670502947554678</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>4.4171926380230513</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>5.6875220998229556</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>13.396984036273912</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>1.6267146191182207</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>3.9098519604169772</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
-        <v>2.059102071183915</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>2.1301960534900517</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:M20" si="2">EXP(B14)</f>
+        <v>2.0167196895661705</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>3.7865035814478478</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>9.3868323061629635</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>15.056551117017483</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3.7670502947554678</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4.4171926380230513</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>5.6875220998229556</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>13.396984036273912</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>1.6267146191182207</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>3.9098519604169772</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>2.059102071183915</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>2.1301960534900517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B20">
-        <f t="shared" ref="B20:M20" si="5">EXP(B14)</f>
+      <c r="B21">
+        <f t="shared" ref="B21:M21" si="3">EXP(B15)</f>
         <v>71.867611992704312</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
+      <c r="C21">
+        <f t="shared" si="3"/>
         <v>8.9297675865371779</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
+      <c r="D21">
+        <f t="shared" si="3"/>
         <v>12.835824349202673</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
+      <c r="E21">
+        <f t="shared" si="3"/>
         <v>3.9163620553348149</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
+      <c r="F21">
+        <f t="shared" si="3"/>
         <v>16.958351172217203</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
+      <c r="G21">
+        <f t="shared" si="3"/>
         <v>13.111469395739981</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
+      <c r="H21">
+        <f t="shared" si="3"/>
         <v>5.1669345924233783</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
+      <c r="I21">
+        <f t="shared" si="3"/>
         <v>6.7274761060083614</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="5"/>
+      <c r="J21">
+        <f t="shared" si="3"/>
         <v>72.763556719571</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
+      <c r="K21">
+        <f t="shared" si="3"/>
         <v>15.236320997812705</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
+      <c r="L21">
+        <f t="shared" si="3"/>
         <v>45.71378986607391</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
+      <c r="M21">
+        <f t="shared" si="3"/>
         <v>28.67120991453216</v>
       </c>
     </row>

--- a/SFE_Parameter_Estimation_Chamomile/Regression.xlsx
+++ b/SFE_Parameter_Estimation_Chamomile/Regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE_Parameter_Estimation_Chamomile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Parameter_fitting_casadi\SFE_Parameter_Estimation_Chamomile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DECD279-AC1B-4046-89FF-88AAC2776ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9810BFE-E869-41F3-ACF7-30445FDD3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{03D41C1C-870E-417B-AAEA-53B147CA819E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{03D41C1C-870E-417B-AAEA-53B147CA819E}"/>
   </bookViews>
   <sheets>
     <sheet name="Interpolated" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>T[K]</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>My Reynolds</t>
+  </si>
+  <si>
+    <t>Hildebrand</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1357,589 +1361,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2102370128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>6.67</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Org!$B$6:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>630.84199999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>691.02539999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>793.17250000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>840.66049999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>772.77200000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>802.80520000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>856.54380000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>891.29899999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Org!$B$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.63091841210246569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34032320319869058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40692151749309152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13518456501078124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45190311263137678</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41052204178723795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21544709570631759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28016847704055114</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DEA-4AD9-AF51-26A1AC102BF0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>3.33</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Org!$J$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>772.77200000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>891.29899999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>691.02539999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>793.17250000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Org!$J$18:$M$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.63217528737795659</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43515641932466459</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58233613240580262</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52580816741273972</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DEA-4AD9-AF51-26A1AC102BF0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1547251552"/>
-        <c:axId val="1806451248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1547251552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Re</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1806451248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1806451248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Log(Di)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1547251552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7042,46 +6463,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8434,522 +7815,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13303,16 +12168,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>649773</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>84068</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>649773</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160268</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>150743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13341,16 +12206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>683315</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>147431</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>683315</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>61706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13379,16 +12244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13415,16 +12280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13444,42 +12309,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>604836</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E994C2-0898-E501-36CB-22CD1094A41B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14183,10 +13012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755FB928-C026-4657-8504-938CB40F20F3}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14194,13 +13023,13 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -14241,7 +13070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14285,7 +13114,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14329,7 +13158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -14373,7 +13202,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14414,7 +13243,7 @@
         <v>793.17250000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -14454,8 +13283,9 @@
       <c r="M7">
         <v>0.17199999999999999</v>
       </c>
+      <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -14495,114 +13325,162 @@
       <c r="M8">
         <v>0.1512</v>
       </c>
+      <c r="P8" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10.234</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11.225</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12.882</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13.645</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12.439</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12.923</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13.792999999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>14.356999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12.439</v>
+      </c>
+      <c r="K9" s="3">
+        <v>14.356999999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>11.225</v>
+      </c>
+      <c r="M9" s="3">
+        <v>12.882</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <f>LOG(B7)</f>
+        <f t="shared" ref="B10:M10" si="0">LOG(B7)</f>
         <v>-0.28903688100472424</v>
       </c>
       <c r="C10">
-        <f>LOG(C7)</f>
+        <f t="shared" si="0"/>
         <v>-0.37675070960209955</v>
       </c>
       <c r="D10">
-        <f>LOG(D7)</f>
+        <f t="shared" si="0"/>
         <v>-0.46218090492672592</v>
       </c>
       <c r="E10">
-        <f>LOG(E7)</f>
+        <f t="shared" si="0"/>
         <v>-0.51570016065321422</v>
       </c>
       <c r="F10">
-        <f>LOG(F7)</f>
+        <f t="shared" si="0"/>
         <v>-0.42021640338318983</v>
       </c>
       <c r="G10">
-        <f>LOG(G7)</f>
+        <f t="shared" si="0"/>
         <v>-0.46470587995722945</v>
       </c>
       <c r="H10">
-        <f>LOG(H7)</f>
+        <f t="shared" si="0"/>
         <v>-0.52578373592374483</v>
       </c>
       <c r="I10">
-        <f>LOG(I7)</f>
+        <f t="shared" si="0"/>
         <v>-0.57186520597121115</v>
       </c>
       <c r="J10">
-        <f>LOG(J7)</f>
+        <f t="shared" si="0"/>
         <v>-0.72124639904717103</v>
       </c>
       <c r="K10">
-        <f>LOG(K7)</f>
+        <f t="shared" si="0"/>
         <v>-0.8728952016351923</v>
       </c>
       <c r="L10">
-        <f>LOG(L7)</f>
+        <f t="shared" si="0"/>
         <v>-0.6777807052660807</v>
       </c>
       <c r="M10">
-        <f>LOG(M7)</f>
+        <f t="shared" si="0"/>
         <v>-0.76447155309245107</v>
       </c>
+      <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <f>EXP(B7)</f>
+        <f t="shared" ref="B11:M11" si="1">EXP(B7)</f>
         <v>1.6719656998361128</v>
       </c>
       <c r="C11">
-        <f>EXP(C7)</f>
+        <f t="shared" si="1"/>
         <v>1.5219615556186337</v>
       </c>
       <c r="D11">
-        <f>EXP(D7)</f>
+        <f t="shared" si="1"/>
         <v>1.4119899196676591</v>
       </c>
       <c r="E11">
-        <f>EXP(E7)</f>
+        <f t="shared" si="1"/>
         <v>1.3566250030062241</v>
       </c>
       <c r="F11">
-        <f>EXP(F7)</f>
+        <f t="shared" si="1"/>
         <v>1.4622845894342245</v>
       </c>
       <c r="G11">
-        <f>EXP(G7)</f>
+        <f t="shared" si="1"/>
         <v>1.4091687619264508</v>
       </c>
       <c r="H11">
-        <f>EXP(H7)</f>
+        <f t="shared" si="1"/>
         <v>1.3471617878795541</v>
       </c>
       <c r="I11">
-        <f>EXP(I7)</f>
+        <f t="shared" si="1"/>
         <v>1.3073471400149361</v>
       </c>
       <c r="J11">
-        <f>EXP(J7)</f>
+        <f t="shared" si="1"/>
         <v>1.2092495976572515</v>
       </c>
       <c r="K11">
-        <f>EXP(K7)</f>
+        <f t="shared" si="1"/>
         <v>1.143392819644647</v>
       </c>
       <c r="L11">
-        <f>EXP(L7)</f>
+        <f t="shared" si="1"/>
         <v>1.2336780599567432</v>
       </c>
       <c r="M11">
-        <f>EXP(M7)</f>
+        <f t="shared" si="1"/>
         <v>1.187677833213906</v>
       </c>
+      <c r="P11" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -14642,8 +13520,9 @@
       <c r="M13">
         <v>-15.872090161114013</v>
       </c>
+      <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14683,8 +13562,9 @@
       <c r="M14">
         <v>0.75621401937759758</v>
       </c>
+      <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -14724,216 +13604,222 @@
       <c r="M15">
         <v>3.3558934804185721</v>
       </c>
+      <c r="P15" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:M17" si="0">LOG(B14)</f>
+        <f t="shared" ref="B17:M17" si="2">LOG(B14)</f>
         <v>-0.15398948912488156</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12432259680074637</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.35011381005021541</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.43325976823295143</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12263924172801355</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17187392628561249</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.24011840169826204</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.41414231758251951</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.31286144632599328</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13465498668156864</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.14130042349639441</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.12135527555601085</v>
       </c>
+      <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:M18" si="1">LOG(B15)</f>
+        <f t="shared" ref="B18:M18" si="3">LOG(B15)</f>
         <v>0.63091841210246569</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34032320319869058</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.40692151749309152</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13518456501078124</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45190311263137678</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41052204178723795</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21544709570631759</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28016847704055114</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63217528737795659</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43515641932466459</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58233613240580262</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52580816741273972</v>
       </c>
+      <c r="P18" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:M20" si="2">EXP(B14)</f>
+        <f t="shared" ref="B20:M20" si="4">EXP(B14)</f>
         <v>2.0167196895661705</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7865035814478478</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.3868323061629635</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.056551117017483</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7670502947554678</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4171926380230513</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6875220998229556</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.396984036273912</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6267146191182207</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9098519604169772</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.059102071183915</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1301960534900517</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:M21" si="3">EXP(B15)</f>
+        <f t="shared" ref="B21:M21" si="5">EXP(B15)</f>
         <v>71.867611992704312</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9297675865371779</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.835824349202673</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9163620553348149</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.958351172217203</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.111469395739981</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.1669345924233783</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7274761060083614</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72.763556719571</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15.236320997812705</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45.71378986607391</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.67120991453216</v>
       </c>
     </row>

--- a/SFE_Parameter_Estimation_Chamomile/Regression.xlsx
+++ b/SFE_Parameter_Estimation_Chamomile/Regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Parameter_fitting_casadi\SFE_Parameter_Estimation_Chamomile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE_Parameter_Estimation_Chamomile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9810BFE-E869-41F3-ACF7-30445FDD3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB3694-322A-408E-8EB1-06E585CA98CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{03D41C1C-870E-417B-AAEA-53B147CA819E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{03D41C1C-870E-417B-AAEA-53B147CA819E}"/>
   </bookViews>
   <sheets>
     <sheet name="Interpolated" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,8 +108,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,17 +143,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -964,28 +975,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.2748257041675721</c:v>
+                  <c:v>4.2297396018274185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1893903684060687</c:v>
+                  <c:v>3.0915205561459209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5522400389223407</c:v>
+                  <c:v>2.3595382245625753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3651631757915688</c:v>
+                  <c:v>1.1327958184658482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.830760407018452</c:v>
+                  <c:v>2.2049757117088693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5734873735498027</c:v>
+                  <c:v>2.7392204248530274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6422795905106575</c:v>
+                  <c:v>1.868538631397977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9062000519230382</c:v>
+                  <c:v>1.6993586898673341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,16 +1108,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.2872152353519892</c:v>
+                  <c:v>3.4523082021200096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7236821167727832</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00000">
-                  <c:v>3.8224</c:v>
+                  <c:v>1.9959056407326095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0126765389417391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3558934804185721</c:v>
+                  <c:v>2.596460036614602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4740,28 +4751,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70147227537586421</c:v>
+                  <c:v>0.71383013015859076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3314430554178129</c:v>
+                  <c:v>1.0768019973586491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2393078887191953</c:v>
+                  <c:v>2.1794701546303803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7118131866508781</c:v>
+                  <c:v>2.4755326320717606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3262922800291814</c:v>
+                  <c:v>1.3907078767496659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4855043445280016</c:v>
+                  <c:v>1.336111172067407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7382746699526765</c:v>
+                  <c:v>1.8829542040698484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5950296097045227</c:v>
+                  <c:v>2.457886055378824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4870,16 +4881,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.48656240972856923</c:v>
+                  <c:v>0.56493551211553927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3634995114945596</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00000">
-                  <c:v>0.72226999999999997</c:v>
+                  <c:v>1.5421069384983135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83572510249678089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75621401937759758</c:v>
+                  <c:v>0.87349666018803007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5317,28 +5328,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.2748257041675721</c:v>
+                  <c:v>4.2297396018274185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1893903684060687</c:v>
+                  <c:v>3.0915205561459209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5522400389223407</c:v>
+                  <c:v>2.3595382245625753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3651631757915688</c:v>
+                  <c:v>1.1327958184658482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.830760407018452</c:v>
+                  <c:v>2.2049757117088693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5734873735498027</c:v>
+                  <c:v>2.7392204248530274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6422795905106575</c:v>
+                  <c:v>1.868538631397977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9062000519230382</c:v>
+                  <c:v>1.6993586898673341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5467,16 +5478,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.2872152353519892</c:v>
+                  <c:v>3.4523082021200096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7236821167727832</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00000">
-                  <c:v>3.8224</c:v>
+                  <c:v>1.9959056407326095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0126765389417391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3558934804185721</c:v>
+                  <c:v>2.596460036614602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5931,28 +5942,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70147227537586421</c:v>
+                  <c:v>0.71383013015859076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3314430554178129</c:v>
+                  <c:v>1.0768019973586491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2393078887191953</c:v>
+                  <c:v>2.1794701546303803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7118131866508781</c:v>
+                  <c:v>2.4755326320717606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3262922800291814</c:v>
+                  <c:v>1.3907078767496659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4855043445280016</c:v>
+                  <c:v>1.336111172067407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7382746699526765</c:v>
+                  <c:v>1.8829542040698484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5950296097045227</c:v>
+                  <c:v>2.457886055378824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6064,16 +6075,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.48656240972856923</c:v>
+                  <c:v>0.56493551211553927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3634995114945596</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00000">
-                  <c:v>0.72226999999999997</c:v>
+                  <c:v>1.5421069384983135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83572510249678089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75621401937759758</c:v>
+                  <c:v>0.87349666018803007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12168,16 +12179,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>150743</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12206,16 +12217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>176006</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>61706</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12281,15 +12292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12617,7 +12628,7 @@
   <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="A1:XFD1048576"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13012,10 +13023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755FB928-C026-4657-8504-938CB40F20F3}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13039,7 +13050,7 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
       <c r="F2">
@@ -13054,7 +13065,7 @@
       <c r="I2">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
       <c r="K2">
@@ -13283,7 +13294,7 @@
       <c r="M7">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -13325,49 +13336,49 @@
       <c r="M8">
         <v>0.1512</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>10.234</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>11.225</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>12.882</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>13.645</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>12.439</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>12.923</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>13.792999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>14.356999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>12.439</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>14.356999999999999</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>11.225</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>12.882</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -13421,7 +13432,7 @@
         <f t="shared" si="0"/>
         <v>-0.76447155309245107</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -13475,139 +13486,139 @@
         <f t="shared" si="1"/>
         <v>1.187677833213906</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P12" s="3"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>-9.3433459124788953</v>
+        <v>-12.242518059438844</v>
       </c>
       <c r="C13">
-        <v>-12.99345312395128</v>
+        <v>-11.164328622969606</v>
       </c>
       <c r="D13">
-        <v>-17.477941423304298</v>
+        <v>-18.408857312816775</v>
       </c>
       <c r="E13">
-        <v>-28.021928584514995</v>
+        <v>-20.892883717501778</v>
       </c>
       <c r="F13">
-        <v>-18.871057207524057</v>
+        <v>-17.92072364441854</v>
       </c>
       <c r="G13">
-        <v>-19.281323853772289</v>
+        <v>-14.34730818563084</v>
       </c>
       <c r="H13">
-        <v>-19.166234468595025</v>
+        <v>-21.067419104629142</v>
       </c>
       <c r="I13">
-        <v>-21.085287945992985</v>
+        <v>-16.623944268557654</v>
       </c>
       <c r="J13">
-        <v>-29.253389020566033</v>
+        <v>-28.677845716845511</v>
       </c>
       <c r="K13">
-        <v>-15.737791772124456</v>
+        <v>-15.388599460877085</v>
       </c>
       <c r="L13">
-        <v>-15.718</v>
+        <v>-15.953198213878022</v>
       </c>
       <c r="M13">
-        <v>-15.872090161114013</v>
-      </c>
-      <c r="P13" s="3"/>
+        <v>-16.251736796051251</v>
+      </c>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0.70147227537586421</v>
+        <v>0.71383013015859076</v>
       </c>
       <c r="C14">
-        <v>1.3314430554178129</v>
+        <v>1.0768019973586491</v>
       </c>
       <c r="D14">
-        <v>2.2393078887191953</v>
+        <v>2.1794701546303803</v>
       </c>
       <c r="E14">
-        <v>2.7118131866508781</v>
+        <v>2.4755326320717606</v>
       </c>
       <c r="F14">
-        <v>1.3262922800291814</v>
+        <v>1.3907078767496659</v>
       </c>
       <c r="G14">
-        <v>1.4855043445280016</v>
+        <v>1.336111172067407</v>
       </c>
       <c r="H14">
-        <v>1.7382746699526765</v>
+        <v>1.8829542040698484</v>
       </c>
       <c r="I14">
-        <v>2.5950296097045227</v>
+        <v>2.457886055378824</v>
       </c>
       <c r="J14">
-        <v>0.48656240972856923</v>
+        <v>0.56493551211553927</v>
       </c>
       <c r="K14">
-        <v>1.3634995114945596</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.72226999999999997</v>
+        <v>1.5421069384983135</v>
+      </c>
+      <c r="L14">
+        <v>0.83572510249678089</v>
       </c>
       <c r="M14">
-        <v>0.75621401937759758</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>0.87349666018803007</v>
+      </c>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>4.2748257041675721</v>
+        <v>4.2297396018274185</v>
       </c>
       <c r="C15">
-        <v>2.1893903684060687</v>
+        <v>3.0915205561459209</v>
       </c>
       <c r="D15">
-        <v>2.5522400389223407</v>
+        <v>2.3595382245625753</v>
       </c>
       <c r="E15">
-        <v>1.3651631757915688</v>
+        <v>1.1327958184658482</v>
       </c>
       <c r="F15">
-        <v>2.830760407018452</v>
+        <v>2.2049757117088693</v>
       </c>
       <c r="G15">
-        <v>2.5734873735498027</v>
+        <v>2.7392204248530274</v>
       </c>
       <c r="H15">
-        <v>1.6422795905106575</v>
+        <v>1.868538631397977</v>
       </c>
       <c r="I15">
-        <v>1.9062000519230382</v>
+        <v>1.6993586898673341</v>
       </c>
       <c r="J15">
-        <v>4.2872152353519892</v>
+        <v>3.4523082021200096</v>
       </c>
       <c r="K15">
-        <v>2.7236821167727832</v>
-      </c>
-      <c r="L15" s="2">
-        <v>3.8224</v>
+        <v>1.9959056407326095</v>
+      </c>
+      <c r="L15">
+        <v>3.0126765389417391</v>
       </c>
       <c r="M15">
-        <v>3.3558934804185721</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>2.596460036614602</v>
+      </c>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P16" s="3"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -13615,159 +13626,159 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17:M17" si="2">LOG(B14)</f>
-        <v>-0.15398948912488156</v>
+        <v>-0.1464051247952505</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>0.12432259680074637</v>
+        <v>3.2135852452928361E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0.35011381005021541</v>
+        <v>0.33835092622450635</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.43325976823295143</v>
+        <f t="shared" ref="E17" si="3">LOG(E14)</f>
+        <v>0.3936686555050275</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.12263924172801355</v>
+        <v>0.14323591443545794</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0.17187392628561249</v>
+        <v>0.12584259542000323</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.24011840169826204</v>
+        <v>0.2748397575304094</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0.41414231758251951</v>
+        <v>0.39056174565082341</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>-0.31286144632599328</v>
+        <v>-0.24800112444747585</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0.13465498668156864</v>
+        <v>0.18811449121777793</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>-0.14130042349639441</v>
+        <v>-7.7936552826120872E-2</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>-0.12135527555601085</v>
-      </c>
-      <c r="P17" s="3"/>
+        <v>-5.8738751201579217E-2</v>
+      </c>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:M18" si="3">LOG(B15)</f>
-        <v>0.63091841210246569</v>
+        <f t="shared" ref="B18:M18" si="4">LOG(B15)</f>
+        <v>0.62631363144821517</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
-        <v>0.34032320319869058</v>
+        <f t="shared" si="4"/>
+        <v>0.49017213855640873</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
-        <v>0.40692151749309152</v>
+        <f t="shared" si="4"/>
+        <v>0.37282701731454043</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>0.13518456501078124</v>
+        <f t="shared" ref="E18" si="5">LOG(E15)</f>
+        <v>5.4151637220199646E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0.45190311263137678</v>
+        <f t="shared" si="4"/>
+        <v>0.34340380998122311</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.41052204178723795</v>
+        <f t="shared" si="4"/>
+        <v>0.43762698130309474</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0.21544709570631759</v>
+        <f t="shared" si="4"/>
+        <v>0.27150208116854901</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.28016847704055114</v>
+        <f t="shared" si="4"/>
+        <v>0.23028505667288707</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0.63217528737795659</v>
+        <f t="shared" si="4"/>
+        <v>0.53810956007479271</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0.43515641932466459</v>
+        <f t="shared" si="4"/>
+        <v>0.30014000554964099</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>0.58233613240580262</v>
+        <f t="shared" si="4"/>
+        <v>0.47895250542253193</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0.52580816741273972</v>
-      </c>
-      <c r="P18" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0.41438164254389148</v>
+      </c>
+      <c r="P18" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:M20" si="4">EXP(B14)</f>
-        <v>2.0167196895661705</v>
+        <f t="shared" ref="B20:M20" si="6">EXP(B14)</f>
+        <v>2.0417966481957395</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
-        <v>3.7865035814478478</v>
+        <f t="shared" si="6"/>
+        <v>2.9352774999884432</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
-        <v>9.3868323061629635</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
-        <v>15.056551117017483</v>
+        <f t="shared" si="6"/>
+        <v>8.8416203258310091</v>
+      </c>
+      <c r="E20" t="e">
+        <f>EXP(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
-        <v>3.7670502947554678</v>
+        <f t="shared" si="6"/>
+        <v>4.0176930781370928</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
-        <v>4.4171926380230513</v>
+        <f t="shared" si="6"/>
+        <v>3.8042207425742323</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
-        <v>5.6875220998229556</v>
+        <f t="shared" si="6"/>
+        <v>6.5728938783808939</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
-        <v>13.396984036273912</v>
+        <f t="shared" si="6"/>
+        <v>11.680094351172801</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>1.6267146191182207</v>
+        <f t="shared" si="6"/>
+        <v>1.7593343233149061</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
-        <v>3.9098519604169772</v>
+        <f t="shared" si="6"/>
+        <v>4.6744286365850165</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
-        <v>2.059102071183915</v>
+        <f t="shared" si="6"/>
+        <v>2.3064858807597406</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>2.1301960534900517</v>
+        <f t="shared" si="6"/>
+        <v>2.3952716786416093</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -13775,52 +13786,64 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:M21" si="5">EXP(B15)</f>
-        <v>71.867611992704312</v>
+        <f t="shared" ref="B21:M21" si="7">EXP(B15)</f>
+        <v>68.699340661723156</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
-        <v>8.9297675865371779</v>
+        <f t="shared" si="7"/>
+        <v>22.010520776133106</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
-        <v>12.835824349202673</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>3.9163620553348149</v>
+        <f t="shared" si="7"/>
+        <v>10.586061940209298</v>
+      </c>
+      <c r="E21" t="e">
+        <f>EXP(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>16.958351172217203</v>
+        <f t="shared" si="7"/>
+        <v>9.0700312696210457</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
-        <v>13.111469395739981</v>
+        <f t="shared" si="7"/>
+        <v>15.474916532444739</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
-        <v>5.1669345924233783</v>
+        <f t="shared" si="7"/>
+        <v>6.4788215314715512</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
-        <v>6.7274761060083614</v>
+        <f t="shared" si="7"/>
+        <v>5.470438019217557</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
-        <v>72.763556719571</v>
+        <f t="shared" si="7"/>
+        <v>31.573185559505006</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
-        <v>15.236320997812705</v>
+        <f t="shared" si="7"/>
+        <v>7.3588644984214913</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
-        <v>45.71378986607391</v>
+        <f t="shared" si="7"/>
+        <v>20.34177267409742</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
-        <v>28.67120991453216</v>
+        <f t="shared" si="7"/>
+        <v>13.416161155216907</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <f>-7.9439*C8+4.2451</f>
+        <v>1.2399226299999997</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <f>11.489*C8-1.281</f>
+        <v>3.0652887000000009</v>
       </c>
     </row>
   </sheetData>
